--- a/target/test-classes/suites/forum.xlsx
+++ b/target/test-classes/suites/forum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="74">
   <si>
     <t>TCID</t>
   </si>
@@ -184,26 +184,70 @@
     <t>Impact of climate change Covid</t>
   </si>
   <si>
-    <t>New Is the impact of climate change more significant than Covid-19?</t>
-  </si>
-  <si>
     <t>New automate title</t>
   </si>
   <si>
     <t>Trending title</t>
   </si>
   <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>Trending title reader</t>
+    <t>Latest Trending title</t>
+  </si>
+  <si>
+    <t>Initiatives for fulfilling the 30 by 30 agenda by nations across the globe shows that there is still hope for a promising future. But this goal can only be achieved by cumulative sustainable actions by individuals, communities, and nations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 by 30 resolution is an international convention for conserving at least 30 percent of the land and 30 percent of the ocean within the territory of nations by 2030, thereby creating a roadmap for preserving biodiversity. We imagine a balanced, fair, and sustainable future in which a stable, prosperous world with a direct link to nature benefits us all.
+As individuals and communities, how can we contribute towards the goal of 30 by 30?
+</t>
+  </si>
+  <si>
+    <t>NaturePositiveEconomy</t>
+  </si>
+  <si>
+    <t>30x30Agenda</t>
+  </si>
+  <si>
+    <t>2030Goals</t>
+  </si>
+  <si>
+    <t>A dedicated place for nature will empower Naturalists and give them a global recognition. It’s time to put nature at the centre stage.</t>
+  </si>
+  <si>
+    <t>All Nature Lover and everyone who contributes to Nature are termed as Naturalists. There are people who have dedicated their lives for nature and protecting our natural resources. Having a platform where they can come together will empower them in various ways.</t>
+  </si>
+  <si>
+    <t>naturalists</t>
+  </si>
+  <si>
+    <t>empoweringnaturalists</t>
+  </si>
+  <si>
+    <t>contributiontonature</t>
+  </si>
+  <si>
+    <t>wenaturalists</t>
+  </si>
+  <si>
+    <t>New rule clears Indonesia’s protected forests for agribusiness.</t>
+  </si>
+  <si>
+    <t>Indonesia’s environment ministry has issued a new regulation aimed at boosting domestic crop supplies, but critics say it prioritises the interests of agribusiness at the expense of small farmers and the environment.</t>
+  </si>
+  <si>
+    <t>ecobusiness</t>
+  </si>
+  <si>
+    <t>indonesiaenvironment</t>
+  </si>
+  <si>
+    <t>environment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +260,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,6 +298,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -612,11 +670,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
-    <col min="14" max="14" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="34.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -789,85 +847,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.88671875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35.21875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -890,7 +952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -913,7 +975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -936,7 +998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -959,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -982,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1017,7 +1079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1043,7 +1105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1062,8 +1124,17 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="O9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1082,8 +1153,17 @@
       <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1097,7 +1177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1132,7 +1212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1164,7 +1244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1202,7 +1282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1242,7 +1322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1282,7 +1362,7 @@
     </row>
     <row r="17" spans="1:18" ht="72" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -1293,9 +1373,6 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1318,9 +1395,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1331,9 +1408,10 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1349,21 +1427,22 @@
       <c r="K18" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>56</v>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1373,54 +1452,139 @@
       <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="L19" s="5"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" t="s">
-        <v>23</v>
-      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
